--- a/VaoLenh.xlsx
+++ b/VaoLenh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>0xed05b97f46e60a7a65605eaba9a4b502d32f9510</t>
+  </si>
+  <si>
+    <t>Tất cả các tài liệu chỉ viết ví dụ cho trường hợp là tăng, còn giảm thì cũng tương tự</t>
   </si>
 </sst>
 </file>
@@ -509,13 +512,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9991</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>187835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>526872</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>90853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -564,13 +567,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1656522</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>84156</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -881,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,552 +1056,576 @@
       <c r="H12" s="5"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>19</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>20</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F30" t="s">
         <v>23</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
         <v>21</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
         <v>22</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F32" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D77" s="6" t="s">
+    <row r="79" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D79" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>56</v>
-      </c>
+    <row r="80" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
         <v>57</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E88" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E88" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>63</v>
-      </c>
-      <c r="E89" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>64</v>
-      </c>
-      <c r="E92" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E94" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E96" t="s">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E100" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E101" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E111" t="s">
+    <row r="113" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E112" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>93</v>
-      </c>
-      <c r="E113" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E115" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>95</v>
+      </c>
       <c r="E117" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
+    <row r="123" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
         <v>102</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G123" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="122" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="125" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E125" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="126" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E126" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E130" t="s">
-        <v>110</v>
-      </c>
-      <c r="F130" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E131" t="s">
-        <v>111</v>
-      </c>
-      <c r="F131" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
+        <v>110</v>
+      </c>
+      <c r="F132" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>111</v>
+      </c>
+      <c r="F133" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
         <v>112</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F134" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D134" t="s">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
         <v>116</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E136" t="s">
         <v>117</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F136" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
-        <v>118</v>
-      </c>
-      <c r="E135" t="s">
-        <v>119</v>
-      </c>
-      <c r="F135" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="137" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
+        <v>118</v>
+      </c>
+      <c r="E137" t="s">
+        <v>119</v>
+      </c>
+      <c r="F137" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
         <v>122</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E139" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E138" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="140" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D165" t="s">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D166" t="s">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
         <v>127</v>
       </c>
     </row>

--- a/VaoLenh.xlsx
+++ b/VaoLenh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -412,13 +412,16 @@
   </si>
   <si>
     <t>Tất cả các tài liệu chỉ viết ví dụ cho trường hợp là tăng, còn giảm thì cũng tương tự</t>
+  </si>
+  <si>
+    <t>Lĩnh ngộ tinh túy thị trường</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +463,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -481,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,6 +500,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1053,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1064,9 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="2"/>
     </row>
